--- a/assets/Stands Prowein 2024 - Sorteio.xlsx
+++ b/assets/Stands Prowein 2024 - Sorteio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\Python\sorteio_prowein\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C6A21A-CBD6-4297-945A-6900C42BBCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DFFD8D-D680-4439-A633-C1A462D0E7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26850" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empresas_Areas" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>QUINTA SANTA EUFEMIA</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Área</t>
+  </si>
+  <si>
+    <t>L1</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AD0738-03BB-40DC-9992-9407722364D7}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1881,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8939476-1DCB-4C63-995E-01A0868100DD}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,8 +1899,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="29">
         <v>40</v>
@@ -2216,7 +2219,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="36">
         <v>41</v>
       </c>
       <c r="B42" s="35">

--- a/assets/Stands Prowein 2024 - Sorteio.xlsx
+++ b/assets/Stands Prowein 2024 - Sorteio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\Python\sorteio_prowein\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DFFD8D-D680-4439-A633-C1A462D0E7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756A674A-996B-4377-8218-58874AE79CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2865" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empresas_Areas" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>QUINTA SANTA EUFEMIA</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>Área</t>
-  </si>
-  <si>
-    <t>L1</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AD0738-03BB-40DC-9992-9407722364D7}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1884,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8939476-1DCB-4C63-995E-01A0868100DD}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,8 +1896,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>64</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="29">
         <v>40</v>
